--- a/Code/Matlab/Quadruped_Simulation/Quadruped_Simulation_Framework/Utilities/Robot_Data/BPA_Muscle_Data.xlsx
+++ b/Code/Matlab/Quadruped_Simulation/Quadruped_Simulation_Framework/Utilities/Robot_Data/BPA_Muscle_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Quadruped_Robot\Code\Matlab\Quadruped_Simulation_Framework\Utilities\Robot_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Quadruped_Robot\Code\Matlab\Quadruped_Simulation\Quadruped_Simulation_Framework\Utilities\Robot_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4605948A-B715-41CA-8989-8B19FE3F8BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E98DA4-12C6-4C97-8DC4-9F77C1872683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8283C3B-726E-42DF-9D00-E4815286CCF6}"/>
   </bookViews>
@@ -19,6 +19,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -382,10 +389,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -706,14 +713,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBCE380-CC9C-4E7D-BFB5-5F3EC17D25AC}">
-  <dimension ref="A1:AU27"/>
+  <dimension ref="A1:AU31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5715" ySplit="1200" topLeftCell="M1" activePane="bottomRight"/>
+      <pane xSplit="5715" ySplit="1200" topLeftCell="W1" activePane="bottomRight"/>
       <selection activeCell="H1" sqref="A1:XFD14"/>
       <selection pane="topRight" activeCell="AV1" sqref="AV1"/>
       <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
-      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomRight" activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,20 +767,20 @@
       <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="39"/>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="39" t="s">
@@ -786,10 +793,10 @@
         <v>10</v>
       </c>
       <c r="O1" s="39"/>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="40"/>
+      <c r="Q1" s="41"/>
       <c r="R1" s="39" t="s">
         <v>11</v>
       </c>
@@ -851,22 +858,22 @@
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
       <c r="R2" s="39"/>
       <c r="S2" s="39"/>
       <c r="T2" s="39"/>
@@ -879,48 +886,48 @@
       <c r="AA2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41" t="s">
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41" t="s">
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="41"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41" t="s">
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41" t="s">
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AN2" s="41"/>
+      <c r="AN2" s="40"/>
       <c r="AO2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AP2" s="41" t="s">
+      <c r="AP2" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41" t="s">
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41" t="s">
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="41"/>
+      <c r="AU2" s="40"/>
     </row>
     <row r="3" spans="1:47" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
@@ -1153,21 +1160,18 @@
         <v>6.4375</v>
       </c>
       <c r="AC4" s="2">
-        <f>0.0254*AB4</f>
         <v>0.16351250000000001</v>
       </c>
       <c r="AD4" s="2">
-        <v>1.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="AE4" s="2">
-        <f>0.0254*AD4</f>
-        <v>4.2862499999999998E-2</v>
+        <v>2.06375E-2</v>
       </c>
       <c r="AF4" s="2">
         <v>2.7656239999999999</v>
       </c>
       <c r="AG4" s="2">
-        <f>0.0254*AF4</f>
         <v>7.0246849599999994E-2</v>
       </c>
       <c r="AH4" s="2">
@@ -1177,21 +1181,18 @@
         <v>-6.4375</v>
       </c>
       <c r="AJ4" s="2">
-        <f>0.0254*AI4</f>
         <v>-0.16351250000000001</v>
       </c>
       <c r="AK4" s="2">
-        <v>1.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="AL4" s="2">
-        <f>0.0254*AK4</f>
-        <v>4.2862499999999998E-2</v>
+        <v>2.06375E-2</v>
       </c>
       <c r="AM4" s="2">
         <v>2.7656239999999999</v>
       </c>
       <c r="AN4" s="2">
-        <f>0.0254*AM4</f>
         <v>7.0246849599999994E-2</v>
       </c>
       <c r="AO4" s="2">
@@ -1201,21 +1202,18 @@
         <v>-9.5625</v>
       </c>
       <c r="AQ4" s="2">
-        <f>0.0254*AP4</f>
         <v>-0.24288749999999998</v>
       </c>
       <c r="AR4" s="2">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="AS4" s="2">
-        <f>0.0254*AR4</f>
-        <v>1.9049999999999997E-2</v>
+        <v>4.4449999999999996E-2</v>
       </c>
       <c r="AT4" s="2">
         <v>2.7656239999999999</v>
       </c>
       <c r="AU4" s="2">
-        <f>0.0254*AT4</f>
         <v>7.0246849599999994E-2</v>
       </c>
     </row>
@@ -1308,22 +1306,18 @@
         <v>6.4375</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" ref="AC5:AC27" si="1">0.0254*AB5</f>
         <v>0.16351250000000001</v>
       </c>
       <c r="AD5" s="5">
-        <f>AD4-0.875</f>
-        <v>0.8125</v>
+        <v>1.6875</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" ref="AE5:AE27" si="2">0.0254*AD5</f>
-        <v>2.06375E-2</v>
+        <v>4.2862499999999998E-2</v>
       </c>
       <c r="AF5" s="5">
         <v>2.7656239999999999</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" ref="AG5:AG27" si="3">0.0254*AF5</f>
         <v>7.0246849599999994E-2</v>
       </c>
       <c r="AH5" s="5">
@@ -1333,22 +1327,18 @@
         <v>-6.4375</v>
       </c>
       <c r="AJ5" s="5">
-        <f t="shared" ref="AJ5:AJ27" si="4">0.0254*AI5</f>
         <v>-0.16351250000000001</v>
       </c>
       <c r="AK5" s="5">
-        <f>AD5</f>
-        <v>0.8125</v>
+        <v>1.6875</v>
       </c>
       <c r="AL5" s="5">
-        <f t="shared" ref="AL5:AL27" si="5">0.0254*AK5</f>
-        <v>2.06375E-2</v>
+        <v>4.2862499999999998E-2</v>
       </c>
       <c r="AM5" s="5">
         <v>2.7656239999999999</v>
       </c>
       <c r="AN5" s="5">
-        <f t="shared" ref="AN5:AN27" si="6">0.0254*AM5</f>
         <v>7.0246849599999994E-2</v>
       </c>
       <c r="AO5" s="5">
@@ -1358,28 +1348,24 @@
         <v>-9.5625</v>
       </c>
       <c r="AQ5" s="5">
-        <f t="shared" ref="AQ5:AQ27" si="7">0.0254*AP5</f>
         <v>-0.24288749999999998</v>
       </c>
       <c r="AR5" s="5">
-        <f>AR4+1</f>
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AS5" s="5">
-        <f t="shared" ref="AS5:AS27" si="8">0.0254*AR5</f>
-        <v>4.4449999999999996E-2</v>
+        <v>1.9049999999999997E-2</v>
       </c>
       <c r="AT5" s="5">
         <v>2.7656239999999999</v>
       </c>
       <c r="AU5" s="5">
-        <f t="shared" ref="AU5:AU27" si="9">0.0254*AT5</f>
         <v>7.0246849599999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A27" si="10">A5+1</f>
+        <f t="shared" ref="A6:A27" si="1">A5+1</f>
         <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1466,21 +1452,21 @@
         <v>-10.504250000000001</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AC5:AC27" si="2">0.0254*AB6</f>
         <v>-0.26680795000000002</v>
       </c>
       <c r="AD6" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AE5:AE27" si="3">0.0254*AD6</f>
         <v>5.8419999999999993E-2</v>
       </c>
       <c r="AF6" s="5">
         <v>4.0625</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AG5:AG27" si="4">0.0254*AF6</f>
         <v>0.1031875</v>
       </c>
       <c r="AH6" s="5">
@@ -1491,21 +1477,21 @@
         <v>-10.504250000000001</v>
       </c>
       <c r="AJ6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AJ5:AJ27" si="5">0.0254*AI6</f>
         <v>-0.26680795000000002</v>
       </c>
       <c r="AK6" s="5">
         <v>-4.5625</v>
       </c>
       <c r="AL6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AL5:AL27" si="6">0.0254*AK6</f>
         <v>-0.11588749999999999</v>
       </c>
       <c r="AM6" s="5">
         <v>4.0625</v>
       </c>
       <c r="AN6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AN5:AN27" si="7">0.0254*AM6</f>
         <v>0.1031875</v>
       </c>
       <c r="AO6" s="5">
@@ -1515,27 +1501,27 @@
         <v>-10.375</v>
       </c>
       <c r="AQ6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AQ5:AQ27" si="8">0.0254*AP6</f>
         <v>-0.26352500000000001</v>
       </c>
       <c r="AR6" s="5">
         <v>-5.3125</v>
       </c>
       <c r="AS6" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AS5:AS27" si="9">0.0254*AR6</f>
         <v>-0.13493749999999999</v>
       </c>
       <c r="AT6" s="5">
         <v>4.0625</v>
       </c>
       <c r="AU6" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AU5:AU27" si="10">0.0254*AT6</f>
         <v>0.1031875</v>
       </c>
     </row>
     <row r="7" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1622,21 +1608,21 @@
         <v>-8.6207499999999992</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.21896704999999997</v>
       </c>
       <c r="AD7" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8419999999999993E-2</v>
       </c>
       <c r="AF7" s="5">
         <v>4.0625</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1031875</v>
       </c>
       <c r="AH7" s="5">
@@ -1646,21 +1632,21 @@
         <v>-8.6207499999999992</v>
       </c>
       <c r="AJ7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21896704999999997</v>
       </c>
       <c r="AK7" s="5">
         <v>-4.5625</v>
       </c>
       <c r="AL7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.11588749999999999</v>
       </c>
       <c r="AM7" s="5">
         <v>4.0625</v>
       </c>
       <c r="AN7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1031875</v>
       </c>
       <c r="AO7" s="5">
@@ -1670,27 +1656,27 @@
         <v>-9.5625</v>
       </c>
       <c r="AQ7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.24288749999999998</v>
       </c>
       <c r="AR7" s="5">
         <v>-5.9455</v>
       </c>
       <c r="AS7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.1510157</v>
       </c>
       <c r="AT7" s="5">
         <v>4.0625</v>
       </c>
       <c r="AU7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1031875</v>
       </c>
     </row>
     <row r="8" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1777,21 +1763,21 @@
         <v>-8.6209989999999994</v>
       </c>
       <c r="AC8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.21897337459999996</v>
       </c>
       <c r="AD8" s="5">
         <v>-12.1875</v>
       </c>
       <c r="AE8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.30956249999999996</v>
       </c>
       <c r="AF8" s="5">
         <v>4.0625</v>
       </c>
       <c r="AG8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1031875</v>
       </c>
       <c r="AH8" s="5">
@@ -1801,21 +1787,21 @@
         <v>-8.6209989999999994</v>
       </c>
       <c r="AJ8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21897337459999996</v>
       </c>
       <c r="AK8" s="5">
         <v>-20.375</v>
       </c>
       <c r="AL8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.51752500000000001</v>
       </c>
       <c r="AM8" s="5">
         <v>4.0625</v>
       </c>
       <c r="AN8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1031875</v>
       </c>
       <c r="AO8" s="5">
@@ -1825,27 +1811,27 @@
         <v>-8.75</v>
       </c>
       <c r="AQ8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.22225</v>
       </c>
       <c r="AR8" s="5">
         <v>-21.125</v>
       </c>
       <c r="AS8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.53657500000000002</v>
       </c>
       <c r="AT8" s="5">
         <v>4.0625</v>
       </c>
       <c r="AU8" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1031875</v>
       </c>
     </row>
     <row r="9" spans="1:47" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1932,21 +1918,21 @@
         <v>-10.40625</v>
       </c>
       <c r="AC9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.26431874999999999</v>
       </c>
       <c r="AD9" s="8">
         <v>-13.651913</v>
       </c>
       <c r="AE9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.34675859019999999</v>
       </c>
       <c r="AF9" s="8">
         <v>4.0625</v>
       </c>
       <c r="AG9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1031875</v>
       </c>
       <c r="AH9" s="8">
@@ -1956,21 +1942,21 @@
         <v>-10.40625</v>
       </c>
       <c r="AJ9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.26431874999999999</v>
       </c>
       <c r="AK9" s="8">
         <v>-20.375</v>
       </c>
       <c r="AL9" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.51752500000000001</v>
       </c>
       <c r="AM9" s="8">
         <v>4.0625</v>
       </c>
       <c r="AN9" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1031875</v>
       </c>
       <c r="AO9" s="8">
@@ -1980,27 +1966,27 @@
         <v>-9.5625</v>
       </c>
       <c r="AQ9" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.24288749999999998</v>
       </c>
       <c r="AR9" s="8">
         <v>-21.757999999999999</v>
       </c>
       <c r="AS9" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.55265319999999996</v>
       </c>
       <c r="AT9" s="8">
         <v>4.0625</v>
       </c>
       <c r="AU9" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1031875</v>
       </c>
     </row>
     <row r="10" spans="1:47" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2087,21 +2073,21 @@
         <v>-6.4375</v>
       </c>
       <c r="AC10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.16351250000000001</v>
       </c>
       <c r="AD10" s="11">
         <v>-1.6875</v>
       </c>
       <c r="AE10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.2862499999999998E-2</v>
       </c>
       <c r="AF10" s="11">
         <v>2.7656239999999999</v>
       </c>
       <c r="AG10" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0246849599999994E-2</v>
       </c>
       <c r="AH10" s="11">
@@ -2111,21 +2097,21 @@
         <v>6.4375</v>
       </c>
       <c r="AJ10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16351250000000001</v>
       </c>
       <c r="AK10" s="11">
         <v>-1.6875</v>
       </c>
       <c r="AL10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.2862499999999998E-2</v>
       </c>
       <c r="AM10" s="11">
         <v>2.7656239999999999</v>
       </c>
       <c r="AN10" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0246849599999994E-2</v>
       </c>
       <c r="AO10" s="11">
@@ -2135,27 +2121,27 @@
         <v>9.5625</v>
       </c>
       <c r="AQ10" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24288749999999998</v>
       </c>
       <c r="AR10" s="11">
         <v>-0.75</v>
       </c>
       <c r="AS10" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.9049999999999997E-2</v>
       </c>
       <c r="AT10" s="11">
         <v>2.7656239999999999</v>
       </c>
       <c r="AU10" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.0246849599999994E-2</v>
       </c>
     </row>
     <row r="11" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -2242,21 +2228,21 @@
         <v>-6.4375</v>
       </c>
       <c r="AC11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.16351250000000001</v>
       </c>
       <c r="AD11" s="14">
         <v>-0.8125</v>
       </c>
       <c r="AE11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.06375E-2</v>
       </c>
       <c r="AF11" s="14">
         <v>2.7656239999999999</v>
       </c>
       <c r="AG11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0246849599999994E-2</v>
       </c>
       <c r="AH11" s="14">
@@ -2266,21 +2252,21 @@
         <v>6.4375</v>
       </c>
       <c r="AJ11" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16351250000000001</v>
       </c>
       <c r="AK11" s="14">
         <v>-0.8125</v>
       </c>
       <c r="AL11" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.06375E-2</v>
       </c>
       <c r="AM11" s="14">
         <v>2.7656239999999999</v>
       </c>
       <c r="AN11" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0246849599999994E-2</v>
       </c>
       <c r="AO11" s="14">
@@ -2290,27 +2276,27 @@
         <v>9.5625</v>
       </c>
       <c r="AQ11" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24288749999999998</v>
       </c>
       <c r="AR11" s="14">
         <v>-1.75</v>
       </c>
       <c r="AS11" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.4449999999999996E-2</v>
       </c>
       <c r="AT11" s="14">
         <v>2.7656239999999999</v>
       </c>
       <c r="AU11" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.0246849599999994E-2</v>
       </c>
     </row>
     <row r="12" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -2397,21 +2383,21 @@
         <v>8.6207510000000003</v>
       </c>
       <c r="AC12" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21896707539999999</v>
       </c>
       <c r="AD12" s="14">
         <v>-0.2</v>
       </c>
       <c r="AE12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.0800000000000003E-3</v>
       </c>
       <c r="AF12" s="14">
         <v>4.0625</v>
       </c>
       <c r="AG12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1031875</v>
       </c>
       <c r="AH12" s="14">
@@ -2421,21 +2407,21 @@
         <v>8.6207510000000003</v>
       </c>
       <c r="AJ12" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21896707539999999</v>
       </c>
       <c r="AK12" s="14">
         <v>-9.125</v>
       </c>
       <c r="AL12" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.23177499999999998</v>
       </c>
       <c r="AM12" s="14">
         <v>4.0625</v>
       </c>
       <c r="AN12" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1031875</v>
       </c>
       <c r="AO12" s="14">
@@ -2445,27 +2431,27 @@
         <v>8.9335009999999997</v>
       </c>
       <c r="AQ12" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22691092539999999</v>
       </c>
       <c r="AR12" s="14">
         <v>-9.875</v>
       </c>
       <c r="AS12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.25082499999999996</v>
       </c>
       <c r="AT12" s="14">
         <v>4.0625</v>
       </c>
       <c r="AU12" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1031875</v>
       </c>
     </row>
     <row r="13" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -2552,21 +2538,21 @@
         <v>10.5</v>
       </c>
       <c r="AC13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="AD13" s="14">
         <v>-0.2</v>
       </c>
       <c r="AE13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.0800000000000003E-3</v>
       </c>
       <c r="AF13" s="14">
         <v>4.0625</v>
       </c>
       <c r="AG13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1031875</v>
       </c>
       <c r="AH13" s="14">
@@ -2576,21 +2562,21 @@
         <v>10.5</v>
       </c>
       <c r="AJ13" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="AK13" s="14">
         <v>-9.125</v>
       </c>
       <c r="AL13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.23177499999999998</v>
       </c>
       <c r="AM13" s="14">
         <v>4.0625</v>
       </c>
       <c r="AN13" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1031875</v>
       </c>
       <c r="AO13" s="14">
@@ -2600,27 +2586,27 @@
         <v>9.5625</v>
       </c>
       <c r="AQ13" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24288749999999998</v>
       </c>
       <c r="AR13" s="14">
         <v>-10.53125</v>
       </c>
       <c r="AS13" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.26749374999999997</v>
       </c>
       <c r="AT13" s="14">
         <v>4.0625</v>
       </c>
       <c r="AU13" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1031875</v>
       </c>
     </row>
     <row r="14" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -2707,21 +2693,21 @@
         <v>10.5</v>
       </c>
       <c r="AC14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="AD14" s="14">
         <v>-11.1875</v>
       </c>
       <c r="AE14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.28416249999999998</v>
       </c>
       <c r="AF14" s="14">
         <v>4.0625</v>
       </c>
       <c r="AG14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1031875</v>
       </c>
       <c r="AH14" s="14">
@@ -2731,21 +2717,21 @@
         <v>10.5</v>
       </c>
       <c r="AJ14" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="AK14" s="14">
         <v>-17.75</v>
       </c>
       <c r="AL14" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.45084999999999997</v>
       </c>
       <c r="AM14" s="14">
         <v>4.0625</v>
       </c>
       <c r="AN14" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1031875</v>
       </c>
       <c r="AO14" s="14">
@@ -2755,27 +2741,27 @@
         <v>10.375</v>
       </c>
       <c r="AQ14" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.26352500000000001</v>
       </c>
       <c r="AR14" s="14">
         <v>-18.5</v>
       </c>
       <c r="AS14" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.46989999999999998</v>
       </c>
       <c r="AT14" s="14">
         <v>4.0625</v>
       </c>
       <c r="AU14" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1031875</v>
       </c>
     </row>
     <row r="15" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -2862,21 +2848,21 @@
         <v>8.7460000000000004</v>
       </c>
       <c r="AC15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2221484</v>
       </c>
       <c r="AD15" s="17">
         <v>-10.125</v>
       </c>
       <c r="AE15" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.25717499999999999</v>
       </c>
       <c r="AF15" s="17">
         <v>4.0625</v>
       </c>
       <c r="AG15" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1031875</v>
       </c>
       <c r="AH15" s="17">
@@ -2886,21 +2872,21 @@
         <v>8.7460000000000004</v>
       </c>
       <c r="AJ15" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2221484</v>
       </c>
       <c r="AK15" s="17">
         <v>-17.75</v>
       </c>
       <c r="AL15" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.45084999999999997</v>
       </c>
       <c r="AM15" s="17">
         <v>4.0625</v>
       </c>
       <c r="AN15" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1031875</v>
       </c>
       <c r="AO15" s="17">
@@ -2910,27 +2896,27 @@
         <v>9.5625</v>
       </c>
       <c r="AQ15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24288749999999998</v>
       </c>
       <c r="AR15" s="17">
         <v>-19.132999999999999</v>
       </c>
       <c r="AS15" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.48597819999999997</v>
       </c>
       <c r="AT15" s="17">
         <v>4.0625</v>
       </c>
       <c r="AU15" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1031875</v>
       </c>
     </row>
     <row r="16" spans="1:47" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -3018,22 +3004,22 @@
         <v>6.4375</v>
       </c>
       <c r="AC16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16351250000000001</v>
       </c>
       <c r="AD16" s="20">
         <f>AD4</f>
-        <v>1.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="AE16" s="20">
-        <f t="shared" si="2"/>
-        <v>4.2862499999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.06375E-2</v>
       </c>
       <c r="AF16" s="20">
         <v>-2.7656239999999999</v>
       </c>
       <c r="AG16" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.0246849599999994E-2</v>
       </c>
       <c r="AH16" s="20">
@@ -3044,22 +3030,22 @@
         <v>-6.4375</v>
       </c>
       <c r="AJ16" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16351250000000001</v>
       </c>
       <c r="AK16" s="20">
         <f>AK4</f>
-        <v>1.6875</v>
+        <v>0.8125</v>
       </c>
       <c r="AL16" s="20">
-        <f t="shared" si="5"/>
-        <v>4.2862499999999998E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.06375E-2</v>
       </c>
       <c r="AM16" s="20">
         <v>-2.7656200000000002</v>
       </c>
       <c r="AN16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.0246747999999998E-2</v>
       </c>
       <c r="AO16" s="20">
@@ -3070,28 +3056,28 @@
         <v>-9.5625</v>
       </c>
       <c r="AQ16" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.24288749999999998</v>
       </c>
       <c r="AR16" s="20">
         <f>AR4</f>
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="AS16" s="20">
-        <f t="shared" si="8"/>
-        <v>1.9049999999999997E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.4449999999999996E-2</v>
       </c>
       <c r="AT16" s="20">
         <v>-2.7656239999999999</v>
       </c>
       <c r="AU16" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-7.0246849599999994E-2</v>
       </c>
     </row>
     <row r="17" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -3179,22 +3165,22 @@
         <v>6.4375</v>
       </c>
       <c r="AC17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16351250000000001</v>
       </c>
       <c r="AD17" s="23">
         <f t="shared" si="11"/>
-        <v>0.8125</v>
+        <v>1.6875</v>
       </c>
       <c r="AE17" s="23">
-        <f t="shared" si="2"/>
-        <v>2.06375E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2862499999999998E-2</v>
       </c>
       <c r="AF17" s="23">
         <v>-2.7656239999999999</v>
       </c>
       <c r="AG17" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.0246849599999994E-2</v>
       </c>
       <c r="AH17" s="23">
@@ -3205,22 +3191,22 @@
         <v>-6.4375</v>
       </c>
       <c r="AJ17" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16351250000000001</v>
       </c>
       <c r="AK17" s="23">
         <f t="shared" si="12"/>
-        <v>0.8125</v>
+        <v>1.6875</v>
       </c>
       <c r="AL17" s="23">
-        <f t="shared" si="5"/>
-        <v>2.06375E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.2862499999999998E-2</v>
       </c>
       <c r="AM17" s="23">
         <v>-2.7656200000000002</v>
       </c>
       <c r="AN17" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.0246747999999998E-2</v>
       </c>
       <c r="AO17" s="23">
@@ -3231,28 +3217,28 @@
         <v>-9.5625</v>
       </c>
       <c r="AQ17" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.24288749999999998</v>
       </c>
       <c r="AR17" s="23">
         <f t="shared" si="13"/>
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AS17" s="23">
-        <f t="shared" si="8"/>
-        <v>4.4449999999999996E-2</v>
+        <f t="shared" si="9"/>
+        <v>1.9049999999999997E-2</v>
       </c>
       <c r="AT17" s="23">
         <v>-2.7656239999999999</v>
       </c>
       <c r="AU17" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-7.0246849599999994E-2</v>
       </c>
     </row>
     <row r="18" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -3340,7 +3326,7 @@
         <v>-10.504250000000001</v>
       </c>
       <c r="AC18" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.26680795000000002</v>
       </c>
       <c r="AD18" s="23">
@@ -3348,14 +3334,14 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AE18" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8419999999999993E-2</v>
       </c>
       <c r="AF18" s="23">
         <v>-4.0625</v>
       </c>
       <c r="AG18" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.1031875</v>
       </c>
       <c r="AH18" s="23">
@@ -3366,7 +3352,7 @@
         <v>-10.504250000000001</v>
       </c>
       <c r="AJ18" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.26680795000000002</v>
       </c>
       <c r="AK18" s="23">
@@ -3374,14 +3360,14 @@
         <v>-4.5625</v>
       </c>
       <c r="AL18" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.11588749999999999</v>
       </c>
       <c r="AM18" s="23">
         <v>-4.0625</v>
       </c>
       <c r="AN18" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1031875</v>
       </c>
       <c r="AO18" s="23">
@@ -3392,7 +3378,7 @@
         <v>-10.375</v>
       </c>
       <c r="AQ18" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.26352500000000001</v>
       </c>
       <c r="AR18" s="23">
@@ -3400,20 +3386,20 @@
         <v>-5.3125</v>
       </c>
       <c r="AS18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.13493749999999999</v>
       </c>
       <c r="AT18" s="23">
         <v>-4.0625</v>
       </c>
       <c r="AU18" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1031875</v>
       </c>
     </row>
     <row r="19" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -3501,7 +3487,7 @@
         <v>-8.6207499999999992</v>
       </c>
       <c r="AC19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.21896704999999997</v>
       </c>
       <c r="AD19" s="23">
@@ -3509,14 +3495,14 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AE19" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.8419999999999993E-2</v>
       </c>
       <c r="AF19" s="23">
         <v>-4.0625</v>
       </c>
       <c r="AG19" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.1031875</v>
       </c>
       <c r="AH19" s="23">
@@ -3527,7 +3513,7 @@
         <v>-8.6207499999999992</v>
       </c>
       <c r="AJ19" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21896704999999997</v>
       </c>
       <c r="AK19" s="23">
@@ -3535,14 +3521,14 @@
         <v>-4.5625</v>
       </c>
       <c r="AL19" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.11588749999999999</v>
       </c>
       <c r="AM19" s="23">
         <v>-4.0625</v>
       </c>
       <c r="AN19" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1031875</v>
       </c>
       <c r="AO19" s="23">
@@ -3553,7 +3539,7 @@
         <v>-9.5625</v>
       </c>
       <c r="AQ19" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.24288749999999998</v>
       </c>
       <c r="AR19" s="23">
@@ -3561,20 +3547,20 @@
         <v>-5.9455</v>
       </c>
       <c r="AS19" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.1510157</v>
       </c>
       <c r="AT19" s="23">
         <v>-4.0625</v>
       </c>
       <c r="AU19" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1031875</v>
       </c>
     </row>
     <row r="20" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -3662,7 +3648,7 @@
         <v>-8.6209989999999994</v>
       </c>
       <c r="AC20" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.21897337459999996</v>
       </c>
       <c r="AD20" s="23">
@@ -3670,14 +3656,14 @@
         <v>-12.1875</v>
       </c>
       <c r="AE20" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.30956249999999996</v>
       </c>
       <c r="AF20" s="23">
         <v>-4.0625</v>
       </c>
       <c r="AG20" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.1031875</v>
       </c>
       <c r="AH20" s="23">
@@ -3688,7 +3674,7 @@
         <v>-8.6209989999999994</v>
       </c>
       <c r="AJ20" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21897337459999996</v>
       </c>
       <c r="AK20" s="23">
@@ -3696,14 +3682,14 @@
         <v>-20.375</v>
       </c>
       <c r="AL20" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.51752500000000001</v>
       </c>
       <c r="AM20" s="23">
         <v>-4.0625</v>
       </c>
       <c r="AN20" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1031875</v>
       </c>
       <c r="AO20" s="23">
@@ -3714,7 +3700,7 @@
         <v>-8.75</v>
       </c>
       <c r="AQ20" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.22225</v>
       </c>
       <c r="AR20" s="23">
@@ -3722,20 +3708,20 @@
         <v>-21.125</v>
       </c>
       <c r="AS20" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.53657500000000002</v>
       </c>
       <c r="AT20" s="23">
         <v>-4.0625</v>
       </c>
       <c r="AU20" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1031875</v>
       </c>
     </row>
     <row r="21" spans="1:47" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B21" s="26" t="s">
@@ -3823,7 +3809,7 @@
         <v>-10.40625</v>
       </c>
       <c r="AC21" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.26431874999999999</v>
       </c>
       <c r="AD21" s="26">
@@ -3831,14 +3817,14 @@
         <v>-13.651913</v>
       </c>
       <c r="AE21" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.34675859019999999</v>
       </c>
       <c r="AF21" s="26">
         <v>-4.0625</v>
       </c>
       <c r="AG21" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.1031875</v>
       </c>
       <c r="AH21" s="26">
@@ -3849,7 +3835,7 @@
         <v>-10.40625</v>
       </c>
       <c r="AJ21" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.26431874999999999</v>
       </c>
       <c r="AK21" s="26">
@@ -3857,14 +3843,14 @@
         <v>-20.375</v>
       </c>
       <c r="AL21" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.51752500000000001</v>
       </c>
       <c r="AM21" s="26">
         <v>-4.0625</v>
       </c>
       <c r="AN21" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1031875</v>
       </c>
       <c r="AO21" s="26">
@@ -3875,7 +3861,7 @@
         <v>-9.5625</v>
       </c>
       <c r="AQ21" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.24288749999999998</v>
       </c>
       <c r="AR21" s="26">
@@ -3883,20 +3869,20 @@
         <v>-21.757999999999999</v>
       </c>
       <c r="AS21" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.55265319999999996</v>
       </c>
       <c r="AT21" s="26">
         <v>-4.0625</v>
       </c>
       <c r="AU21" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1031875</v>
       </c>
     </row>
     <row r="22" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B22" s="29" t="s">
@@ -3984,7 +3970,7 @@
         <v>-6.4375</v>
       </c>
       <c r="AC22" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.16351250000000001</v>
       </c>
       <c r="AD22" s="29">
@@ -3992,14 +3978,14 @@
         <v>-1.6875</v>
       </c>
       <c r="AE22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.2862499999999998E-2</v>
       </c>
       <c r="AF22" s="29">
         <v>-2.7656239999999999</v>
       </c>
       <c r="AG22" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.0246849599999994E-2</v>
       </c>
       <c r="AH22" s="29">
@@ -4010,7 +3996,7 @@
         <v>6.4375</v>
       </c>
       <c r="AJ22" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16351250000000001</v>
       </c>
       <c r="AK22" s="29">
@@ -4018,14 +4004,14 @@
         <v>-1.6875</v>
       </c>
       <c r="AL22" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.2862499999999998E-2</v>
       </c>
       <c r="AM22" s="29">
         <v>-2.7656200000000002</v>
       </c>
       <c r="AN22" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.0246747999999998E-2</v>
       </c>
       <c r="AO22" s="29">
@@ -4036,7 +4022,7 @@
         <v>9.5625</v>
       </c>
       <c r="AQ22" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24288749999999998</v>
       </c>
       <c r="AR22" s="29">
@@ -4044,20 +4030,20 @@
         <v>-0.75</v>
       </c>
       <c r="AS22" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.9049999999999997E-2</v>
       </c>
       <c r="AT22" s="29">
         <v>-2.7656239999999999</v>
       </c>
       <c r="AU22" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-7.0246849599999994E-2</v>
       </c>
     </row>
     <row r="23" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -4145,7 +4131,7 @@
         <v>-6.4375</v>
       </c>
       <c r="AC23" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.16351250000000001</v>
       </c>
       <c r="AD23" s="32">
@@ -4153,14 +4139,14 @@
         <v>-0.8125</v>
       </c>
       <c r="AE23" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.06375E-2</v>
       </c>
       <c r="AF23" s="32">
         <v>-2.7656239999999999</v>
       </c>
       <c r="AG23" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.0246849599999994E-2</v>
       </c>
       <c r="AH23" s="32">
@@ -4171,7 +4157,7 @@
         <v>6.4375</v>
       </c>
       <c r="AJ23" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16351250000000001</v>
       </c>
       <c r="AK23" s="32">
@@ -4179,14 +4165,14 @@
         <v>-0.8125</v>
       </c>
       <c r="AL23" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.06375E-2</v>
       </c>
       <c r="AM23" s="32">
         <v>-2.7656200000000002</v>
       </c>
       <c r="AN23" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.0246747999999998E-2</v>
       </c>
       <c r="AO23" s="32">
@@ -4197,7 +4183,7 @@
         <v>9.5625</v>
       </c>
       <c r="AQ23" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24288749999999998</v>
       </c>
       <c r="AR23" s="32">
@@ -4205,20 +4191,20 @@
         <v>-1.75</v>
       </c>
       <c r="AS23" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.4449999999999996E-2</v>
       </c>
       <c r="AT23" s="32">
         <v>-2.7656239999999999</v>
       </c>
       <c r="AU23" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-7.0246849599999994E-2</v>
       </c>
     </row>
     <row r="24" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -4306,7 +4292,7 @@
         <v>8.6207510000000003</v>
       </c>
       <c r="AC24" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21896707539999999</v>
       </c>
       <c r="AD24" s="32">
@@ -4314,14 +4300,14 @@
         <v>-0.2</v>
       </c>
       <c r="AE24" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.0800000000000003E-3</v>
       </c>
       <c r="AF24" s="32">
         <v>-4.0625</v>
       </c>
       <c r="AG24" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.1031875</v>
       </c>
       <c r="AH24" s="32">
@@ -4332,7 +4318,7 @@
         <v>8.6207510000000003</v>
       </c>
       <c r="AJ24" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21896707539999999</v>
       </c>
       <c r="AK24" s="32">
@@ -4340,14 +4326,14 @@
         <v>-9.125</v>
       </c>
       <c r="AL24" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.23177499999999998</v>
       </c>
       <c r="AM24" s="32">
         <v>-4.0625</v>
       </c>
       <c r="AN24" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1031875</v>
       </c>
       <c r="AO24" s="32">
@@ -4358,7 +4344,7 @@
         <v>8.9335009999999997</v>
       </c>
       <c r="AQ24" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22691092539999999</v>
       </c>
       <c r="AR24" s="32">
@@ -4366,20 +4352,20 @@
         <v>-9.875</v>
       </c>
       <c r="AS24" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.25082499999999996</v>
       </c>
       <c r="AT24" s="32">
         <v>-4.0625</v>
       </c>
       <c r="AU24" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1031875</v>
       </c>
     </row>
     <row r="25" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -4467,7 +4453,7 @@
         <v>10.5</v>
       </c>
       <c r="AC25" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="AD25" s="32">
@@ -4475,14 +4461,14 @@
         <v>-0.2</v>
       </c>
       <c r="AE25" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.0800000000000003E-3</v>
       </c>
       <c r="AF25" s="32">
         <v>-4.0625</v>
       </c>
       <c r="AG25" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.1031875</v>
       </c>
       <c r="AH25" s="32">
@@ -4493,7 +4479,7 @@
         <v>10.5</v>
       </c>
       <c r="AJ25" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="AK25" s="32">
@@ -4501,14 +4487,14 @@
         <v>-9.125</v>
       </c>
       <c r="AL25" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.23177499999999998</v>
       </c>
       <c r="AM25" s="32">
         <v>-4.0625</v>
       </c>
       <c r="AN25" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1031875</v>
       </c>
       <c r="AO25" s="32">
@@ -4519,7 +4505,7 @@
         <v>9.5625</v>
       </c>
       <c r="AQ25" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24288749999999998</v>
       </c>
       <c r="AR25" s="32">
@@ -4527,20 +4513,20 @@
         <v>-10.53125</v>
       </c>
       <c r="AS25" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.26749374999999997</v>
       </c>
       <c r="AT25" s="32">
         <v>-4.0625</v>
       </c>
       <c r="AU25" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1031875</v>
       </c>
     </row>
     <row r="26" spans="1:47" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B26" s="32" t="s">
@@ -4628,7 +4614,7 @@
         <v>10.5</v>
       </c>
       <c r="AC26" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="AD26" s="32">
@@ -4636,14 +4622,14 @@
         <v>-11.1875</v>
       </c>
       <c r="AE26" s="32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.28416249999999998</v>
       </c>
       <c r="AF26" s="32">
         <v>-4.0625</v>
       </c>
       <c r="AG26" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.1031875</v>
       </c>
       <c r="AH26" s="32">
@@ -4654,7 +4640,7 @@
         <v>10.5</v>
       </c>
       <c r="AJ26" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.26669999999999999</v>
       </c>
       <c r="AK26" s="32">
@@ -4662,14 +4648,14 @@
         <v>-17.75</v>
       </c>
       <c r="AL26" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.45084999999999997</v>
       </c>
       <c r="AM26" s="32">
         <v>-4.0625</v>
       </c>
       <c r="AN26" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1031875</v>
       </c>
       <c r="AO26" s="32">
@@ -4680,7 +4666,7 @@
         <v>10.375</v>
       </c>
       <c r="AQ26" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.26352500000000001</v>
       </c>
       <c r="AR26" s="32">
@@ -4688,20 +4674,20 @@
         <v>-18.5</v>
       </c>
       <c r="AS26" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.46989999999999998</v>
       </c>
       <c r="AT26" s="32">
         <v>-4.0625</v>
       </c>
       <c r="AU26" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1031875</v>
       </c>
     </row>
     <row r="27" spans="1:47" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B27" s="35" t="s">
@@ -4789,7 +4775,7 @@
         <v>8.7460000000000004</v>
       </c>
       <c r="AC27" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2221484</v>
       </c>
       <c r="AD27" s="35">
@@ -4797,14 +4783,14 @@
         <v>-10.125</v>
       </c>
       <c r="AE27" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.25717499999999999</v>
       </c>
       <c r="AF27" s="35">
         <v>-4.0625</v>
       </c>
       <c r="AG27" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.1031875</v>
       </c>
       <c r="AH27" s="35">
@@ -4815,7 +4801,7 @@
         <v>8.7460000000000004</v>
       </c>
       <c r="AJ27" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2221484</v>
       </c>
       <c r="AK27" s="35">
@@ -4823,14 +4809,14 @@
         <v>-17.75</v>
       </c>
       <c r="AL27" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.45084999999999997</v>
       </c>
       <c r="AM27" s="35">
         <v>-4.0625</v>
       </c>
       <c r="AN27" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1031875</v>
       </c>
       <c r="AO27" s="35">
@@ -4841,7 +4827,7 @@
         <v>9.5625</v>
       </c>
       <c r="AQ27" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.24288749999999998</v>
       </c>
       <c r="AR27" s="35">
@@ -4849,27 +4835,177 @@
         <v>-19.132999999999999</v>
       </c>
       <c r="AS27" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.48597819999999997</v>
       </c>
       <c r="AT27" s="35">
         <v>-4.0625</v>
       </c>
       <c r="AU27" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.1031875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AB30" s="5">
+        <v>6.4375</v>
+      </c>
+      <c r="AC30" s="5">
+        <f t="shared" ref="AC30" si="14">0.0254*AB30</f>
+        <v>0.16351250000000001</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="AE30" s="5">
+        <f t="shared" ref="AE30" si="15">0.0254*AD30</f>
+        <v>2.06375E-2</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>2.7656239999999999</v>
+      </c>
+      <c r="AG30" s="5">
+        <f t="shared" ref="AG30" si="16">0.0254*AF30</f>
+        <v>7.0246849599999994E-2</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="5">
+        <v>-6.4375</v>
+      </c>
+      <c r="AJ30" s="5">
+        <f t="shared" ref="AJ30" si="17">0.0254*AI30</f>
+        <v>-0.16351250000000001</v>
+      </c>
+      <c r="AK30" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="AL30" s="5">
+        <f t="shared" ref="AL30" si="18">0.0254*AK30</f>
+        <v>2.06375E-2</v>
+      </c>
+      <c r="AM30" s="5">
+        <v>2.7656239999999999</v>
+      </c>
+      <c r="AN30" s="5">
+        <f t="shared" ref="AN30" si="19">0.0254*AM30</f>
+        <v>7.0246849599999994E-2</v>
+      </c>
+      <c r="AO30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="5">
+        <v>-9.5625</v>
+      </c>
+      <c r="AQ30" s="5">
+        <f t="shared" ref="AQ30" si="20">0.0254*AP30</f>
+        <v>-0.24288749999999998</v>
+      </c>
+      <c r="AR30" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="AS30" s="5">
+        <f t="shared" ref="AS30" si="21">0.0254*AR30</f>
+        <v>4.4449999999999996E-2</v>
+      </c>
+      <c r="AT30" s="5">
+        <v>2.7656239999999999</v>
+      </c>
+      <c r="AU30" s="5">
+        <f t="shared" ref="AU30" si="22">0.0254*AT30</f>
+        <v>7.0246849599999994E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AB31" s="2">
+        <v>6.4375</v>
+      </c>
+      <c r="AC31" s="2">
+        <f>0.0254*AB31</f>
+        <v>0.16351250000000001</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>1.6875</v>
+      </c>
+      <c r="AE31" s="2">
+        <f>0.0254*AD31</f>
+        <v>4.2862499999999998E-2</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>2.7656239999999999</v>
+      </c>
+      <c r="AG31" s="2">
+        <f>0.0254*AF31</f>
+        <v>7.0246849599999994E-2</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>-6.4375</v>
+      </c>
+      <c r="AJ31" s="2">
+        <f>0.0254*AI31</f>
+        <v>-0.16351250000000001</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>1.6875</v>
+      </c>
+      <c r="AL31" s="2">
+        <f>0.0254*AK31</f>
+        <v>4.2862499999999998E-2</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>2.7656239999999999</v>
+      </c>
+      <c r="AN31" s="2">
+        <f>0.0254*AM31</f>
+        <v>7.0246849599999994E-2</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>-9.5625</v>
+      </c>
+      <c r="AQ31" s="2">
+        <f>0.0254*AP31</f>
+        <v>-0.24288749999999998</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AS31" s="2">
+        <f>0.0254*AR31</f>
+        <v>1.9049999999999997E-2</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>2.7656239999999999</v>
+      </c>
+      <c r="AU31" s="2">
+        <f>0.0254*AT31</f>
+        <v>7.0246849599999994E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="P1:Q2"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="AB2:AC2"/>
@@ -4881,22 +5017,14 @@
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
